--- a/ofc/estimates/nagar aspatal emergency ward/estimate (1).xlsx
+++ b/ofc/estimates/nagar aspatal emergency ward/estimate (1).xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\nagar aspatal emergency ward\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\nagar aspatal emergency ward\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7452"/>
   </bookViews>
   <sheets>
     <sheet name="estimate (2)" sheetId="25" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <definedName name="Ttile">'[1]update Rate'!$N$43</definedName>
     <definedName name="unskilled">'[2]Material rate'!$D$154</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -313,10 +313,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -498,7 +498,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="95">
@@ -509,7 +509,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,14 +529,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -545,7 +545,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,7 +566,7 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -592,7 +592,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -605,7 +605,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -618,7 +618,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -637,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -678,13 +678,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -703,6 +703,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -722,21 +737,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1589,25 +1589,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +1622,7 @@
       <c r="J1" s="77"/>
       <c r="K1" s="77"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="J2" s="78"/>
       <c r="K2" s="78"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
         <v>2</v>
       </c>
@@ -1652,7 +1652,7 @@
       <c r="J3" s="79"/>
       <c r="K3" s="79"/>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -1667,7 +1667,7 @@
       <c r="J4" s="79"/>
       <c r="K4" s="79"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="80" t="s">
         <v>4</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="J5" s="80"/>
       <c r="K5" s="80"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="81" t="s">
         <v>47</v>
       </c>
@@ -1699,24 +1699,24 @@
       <c r="J6" s="82"/>
       <c r="K6" s="82"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="M8" s="31"/>
     </row>
-    <row r="9" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -1780,7 +1780,7 @@
       <c r="K9" s="21"/>
       <c r="M9" s="70"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="55"/>
       <c r="B10" s="59" t="s">
         <v>43</v>
@@ -1809,7 +1809,7 @@
       <c r="K10" s="56"/>
       <c r="M10" s="70"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="55"/>
       <c r="B11" s="59" t="s">
         <v>42</v>
@@ -1838,7 +1838,7 @@
       <c r="K11" s="56"/>
       <c r="M11" s="61"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="55"/>
       <c r="B12" s="59" t="s">
         <v>41</v>
@@ -1866,7 +1866,7 @@
       <c r="J12" s="58"/>
       <c r="K12" s="56"/>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="33" t="s">
         <v>31</v>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="33"/>
       <c r="C14" s="19"/>
@@ -1905,7 +1905,7 @@
       <c r="J14" s="36"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>2</v>
       </c>
@@ -1922,7 +1922,7 @@
       <c r="J15" s="30"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
       <c r="B16" s="59" t="s">
         <v>44</v>
@@ -1939,21 +1939,21 @@
         <v>1.8</v>
       </c>
       <c r="G16" s="60">
-        <f>F16</f>
-        <v>1.8</v>
+        <f>PRODUCT(C16:F16)</f>
+        <v>10.012191405059433</v>
       </c>
       <c r="H16" s="58"/>
       <c r="I16" s="58"/>
       <c r="J16" s="58"/>
       <c r="K16" s="56"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="55"/>
       <c r="B17" s="59" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D17" s="12">
         <v>0.874</v>
@@ -1963,15 +1963,15 @@
         <v>1.8</v>
       </c>
       <c r="G17" s="60">
-        <f t="shared" ref="G17:G18" si="2">F17</f>
-        <v>1.8</v>
+        <f t="shared" ref="G17:G18" si="2">PRODUCT(C17:F17)</f>
+        <v>-1.5731999999999999</v>
       </c>
       <c r="H17" s="58"/>
       <c r="I17" s="58"/>
       <c r="J17" s="58"/>
       <c r="K17" s="56"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55"/>
       <c r="B18" s="59" t="s">
         <v>46</v>
@@ -1984,18 +1984,18 @@
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="G18" s="60">
         <f t="shared" si="2"/>
-        <v>1.78</v>
+        <v>1.8360000000000001</v>
       </c>
       <c r="H18" s="58"/>
       <c r="I18" s="58"/>
       <c r="J18" s="58"/>
       <c r="K18" s="56"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="33" t="s">
         <v>31</v>
@@ -2006,35 +2006,35 @@
       <c r="F19" s="21"/>
       <c r="G19" s="23">
         <f>SUM(G16:G18)</f>
-        <v>5.38</v>
+        <v>10.274991405059433</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>33</v>
       </c>
       <c r="I19" s="23">
-        <f>5476.83*1.15</f>
-        <v>6298.3544999999995</v>
+        <f>4465.4*1.15</f>
+        <v>5135.2099999999991</v>
       </c>
       <c r="J19" s="36">
         <f>G19*I19</f>
-        <v>33885.147209999996</v>
+        <v>52764.238613175243</v>
       </c>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
-      <c r="B20" s="28"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="30"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="30"/>
+      <c r="J20" s="36"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="37" t="s">
         <v>16</v>
@@ -2047,12 +2047,12 @@
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
       <c r="J21" s="36">
-        <f>SUM(J9:J20)</f>
-        <v>46326.255556332209</v>
+        <f>SUM(J9:J19)</f>
+        <v>65205.346959507457</v>
       </c>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="46"/>
       <c r="B22" s="49"/>
       <c r="C22" s="50"/>
@@ -2065,16 +2065,16 @@
       <c r="J22" s="48"/>
       <c r="K22" s="45"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
       <c r="B23" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="76">
+      <c r="C23" s="74">
         <f>J21</f>
-        <v>46326.255556332209</v>
-      </c>
-      <c r="D23" s="76"/>
+        <v>65205.346959507457</v>
+      </c>
+      <c r="D23" s="74"/>
       <c r="E23" s="40"/>
       <c r="F23" s="41"/>
       <c r="G23" s="40"/>
@@ -2082,16 +2082,16 @@
       <c r="I23" s="43"/>
       <c r="J23" s="44"/>
     </row>
-    <row r="24" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
       <c r="B24" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="76">
+      <c r="C24" s="74">
         <f>0.13*C23</f>
-        <v>6022.4132223231873</v>
-      </c>
-      <c r="D24" s="76"/>
+        <v>8476.6951047359689</v>
+      </c>
+      <c r="D24" s="74"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
@@ -2099,85 +2099,85 @@
       <c r="I24" s="45"/>
       <c r="J24" s="45"/>
     </row>
-    <row r="25" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="76">
+      <c r="C25" s="74">
         <f>SUM(C23:D24)</f>
-        <v>52348.668778655396</v>
-      </c>
-      <c r="D25" s="76"/>
-    </row>
-    <row r="26" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>73682.042064243433</v>
+      </c>
+      <c r="D25" s="74"/>
+    </row>
+    <row r="26" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
@@ -2191,60 +2191,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="62" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-    </row>
-    <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+    </row>
+    <row r="2" spans="1:16" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
         <v>2</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="K3" s="79"/>
       <c r="N3" s="64"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -2276,31 +2276,31 @@
       <c r="K4" s="79"/>
       <c r="N4" s="64"/>
     </row>
-    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
+    <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-    </row>
-    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+    </row>
+    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="90">
+      <c r="C6" s="83">
         <f>F17</f>
-        <v>46326.255556332209</v>
-      </c>
-      <c r="D6" s="91"/>
+        <v>65205.346959507457</v>
+      </c>
+      <c r="D6" s="84"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -2308,28 +2308,28 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="90">
+      <c r="J6" s="83">
         <f>I17</f>
-        <v>46326.255556332209</v>
-      </c>
-      <c r="K6" s="91"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>65100.588675507453</v>
+      </c>
+      <c r="K6" s="84"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="I7" s="86" t="s">
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="I7" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="81" t="str">
         <f>Valuated!A6</f>
         <v>Project:- नगर अस्पताल मर्मत</v>
@@ -2339,59 +2339,59 @@
       <c r="D8" s="81"/>
       <c r="E8" s="81"/>
       <c r="F8" s="81"/>
-      <c r="I8" s="87" t="s">
+      <c r="I8" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="str">
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="93" t="str">
         <f>Valuated!A7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="I9" s="87" t="s">
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="I9" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89" t="s">
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="83" t="s">
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="84" t="s">
+      <c r="K11" s="89" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -2410,10 +2410,10 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="83"/>
-      <c r="K12" s="84"/>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J12" s="88"/>
+      <c r="K12" s="89"/>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
         <f>'estimate (2)'!A9</f>
         <v>1</v>
@@ -2459,7 +2459,7 @@
       <c r="O13" s="66"/>
       <c r="P13" s="66"/>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="12"/>
@@ -2475,7 +2475,7 @@
       <c r="O14" s="66"/>
       <c r="P14" s="66"/>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <f>'estimate (2)'!A15</f>
         <v>2</v>
@@ -2490,38 +2490,38 @@
       </c>
       <c r="D15" s="12">
         <f>'estimate (2)'!G19</f>
-        <v>5.38</v>
+        <v>10.274991405059433</v>
       </c>
       <c r="E15" s="12">
         <f>'estimate (2)'!I19</f>
-        <v>6298.3544999999995</v>
+        <v>5135.2099999999991</v>
       </c>
       <c r="F15" s="12">
         <f>D15*E15</f>
-        <v>33885.147209999996</v>
+        <v>52764.238613175243</v>
       </c>
       <c r="G15" s="12">
         <f>Valuated!G19</f>
-        <v>5.38</v>
+        <v>10.254591405059433</v>
       </c>
       <c r="H15" s="12">
         <f>Valuated!I19</f>
-        <v>6298.3544999999995</v>
+        <v>5135.2099999999991</v>
       </c>
       <c r="I15" s="12">
         <f>G15*H15</f>
-        <v>33885.147209999996</v>
+        <v>52659.48032917524</v>
       </c>
       <c r="J15" s="26">
         <f>I15-F15</f>
-        <v>0</v>
+        <v>-104.75828400000319</v>
       </c>
       <c r="K15" s="14"/>
       <c r="N15" s="64"/>
       <c r="O15" s="66"/>
       <c r="P15" s="66"/>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="12"/>
@@ -2537,7 +2537,7 @@
       <c r="O16" s="66"/>
       <c r="P16" s="66"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -2547,23 +2547,23 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7">
         <f>SUM(F13:F15)</f>
-        <v>46326.255556332209</v>
+        <v>65205.346959507457</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7">
         <f>SUM(I13:I15)</f>
-        <v>46326.255556332209</v>
+        <v>65100.588675507453</v>
       </c>
       <c r="J17" s="13">
         <f>I17-F17</f>
-        <v>0</v>
+        <v>-104.75828400000319</v>
       </c>
       <c r="K17" s="5"/>
       <c r="O17" s="65"/>
       <c r="P17" s="66"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>55</v>
@@ -2573,23 +2573,23 @@
       <c r="E18" s="67"/>
       <c r="F18" s="7">
         <f>0.13*F17</f>
-        <v>6022.4132223231873</v>
+        <v>8476.6951047359689</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7">
         <f>0.13*I17</f>
-        <v>6022.4132223231873</v>
+        <v>8463.0765278159688</v>
       </c>
       <c r="J18" s="13">
         <f t="shared" ref="J18:J19" si="3">I18-F18</f>
-        <v>0</v>
+        <v>-13.618576920000123</v>
       </c>
       <c r="K18" s="5"/>
       <c r="O18" s="65"/>
       <c r="P18" s="66"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>56</v>
@@ -2599,75 +2599,68 @@
       <c r="E19" s="67"/>
       <c r="F19" s="7">
         <f>SUM(F17:F18)</f>
-        <v>52348.668778655396</v>
+        <v>73682.042064243433</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7">
         <f>SUM(I17:I18)</f>
-        <v>52348.668778655396</v>
+        <v>73563.665203323428</v>
       </c>
       <c r="J19" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-118.37686092000513</v>
       </c>
       <c r="K19" s="5"/>
       <c r="O19" s="65"/>
       <c r="P19" s="66"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O20" s="65"/>
       <c r="P20" s="66"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O21" s="65"/>
       <c r="P21" s="66"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O22" s="65"/>
       <c r="P22" s="66"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O23" s="65"/>
       <c r="P23" s="66"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N24" s="51"/>
       <c r="O24" s="65"/>
       <c r="P24" s="66"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O25" s="65"/>
       <c r="P25" s="65"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N26" s="63"/>
       <c r="O26" s="65"/>
       <c r="P26" s="65"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N28" s="67"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N29" s="67"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O30" s="65"/>
       <c r="P30" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -2681,6 +2674,13 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2698,25 +2698,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
@@ -2731,7 +2731,7 @@
       <c r="J1" s="77"/>
       <c r="K1" s="77"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
@@ -2746,7 +2746,7 @@
       <c r="J2" s="78"/>
       <c r="K2" s="78"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
         <v>2</v>
       </c>
@@ -2761,7 +2761,7 @@
       <c r="J3" s="79"/>
       <c r="K3" s="79"/>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="J4" s="79"/>
       <c r="K4" s="79"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="80" t="s">
         <v>49</v>
       </c>
@@ -2791,7 +2791,7 @@
       <c r="J5" s="80"/>
       <c r="K5" s="80"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="81" t="s">
         <v>47</v>
       </c>
@@ -2808,24 +2808,24 @@
       <c r="J6" s="82"/>
       <c r="K6" s="82"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="M8" s="31"/>
     </row>
-    <row r="9" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -2889,7 +2889,7 @@
       <c r="K9" s="21"/>
       <c r="M9" s="70"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="55"/>
       <c r="B10" s="59" t="s">
         <v>43</v>
@@ -2905,11 +2905,11 @@
         <v>0.70599999999999996</v>
       </c>
       <c r="F10" s="12">
-        <f t="shared" ref="F10:F11" si="0">PRODUCT(C10:E10)</f>
+        <f>PRODUCT(C10:E10)</f>
         <v>5.5946357817738486</v>
       </c>
       <c r="G10" s="60">
-        <f t="shared" ref="G10:G11" si="1">F10</f>
+        <f>F10</f>
         <v>5.5946357817738486</v>
       </c>
       <c r="H10" s="58"/>
@@ -2918,7 +2918,7 @@
       <c r="K10" s="56"/>
       <c r="M10" s="70"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="55"/>
       <c r="B11" s="59" t="s">
         <v>42</v>
@@ -2934,11 +2934,11 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F10:F11" si="0">PRODUCT(C11:E11)</f>
         <v>30.726328964746518</v>
       </c>
       <c r="G11" s="60">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G10:G11" si="1">F11</f>
         <v>30.726328964746518</v>
       </c>
       <c r="H11" s="58"/>
@@ -2947,7 +2947,7 @@
       <c r="K11" s="56"/>
       <c r="M11" s="61"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="55"/>
       <c r="B12" s="59" t="s">
         <v>41</v>
@@ -2975,7 +2975,7 @@
       <c r="J12" s="58"/>
       <c r="K12" s="56"/>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="33" t="s">
         <v>31</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="33"/>
       <c r="C14" s="19"/>
@@ -3014,7 +3014,7 @@
       <c r="J14" s="36"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>2</v>
       </c>
@@ -3031,7 +3031,7 @@
       <c r="J15" s="30"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
       <c r="B16" s="59" t="s">
         <v>44</v>
@@ -3048,21 +3048,21 @@
         <v>1.8</v>
       </c>
       <c r="G16" s="60">
-        <f>F16</f>
-        <v>1.8</v>
+        <f>PRODUCT(C16:F16)</f>
+        <v>10.012191405059433</v>
       </c>
       <c r="H16" s="58"/>
       <c r="I16" s="58"/>
       <c r="J16" s="58"/>
       <c r="K16" s="56"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="55"/>
       <c r="B17" s="59" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D17" s="12">
         <v>0.874</v>
@@ -3072,15 +3072,15 @@
         <v>1.8</v>
       </c>
       <c r="G17" s="60">
-        <f t="shared" ref="G17:G18" si="2">F17</f>
-        <v>1.8</v>
+        <f t="shared" ref="G17:G18" si="2">PRODUCT(C17:F17)</f>
+        <v>-1.5731999999999999</v>
       </c>
       <c r="H17" s="58"/>
       <c r="I17" s="58"/>
       <c r="J17" s="58"/>
       <c r="K17" s="56"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55"/>
       <c r="B18" s="59" t="s">
         <v>46</v>
@@ -3097,14 +3097,14 @@
       </c>
       <c r="G18" s="60">
         <f t="shared" si="2"/>
-        <v>1.78</v>
+        <v>1.8156000000000001</v>
       </c>
       <c r="H18" s="58"/>
       <c r="I18" s="58"/>
       <c r="J18" s="58"/>
       <c r="K18" s="56"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="33" t="s">
         <v>31</v>
@@ -3115,22 +3115,22 @@
       <c r="F19" s="21"/>
       <c r="G19" s="23">
         <f>SUM(G16:G18)</f>
-        <v>5.38</v>
+        <v>10.254591405059433</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>33</v>
       </c>
       <c r="I19" s="23">
-        <f>5476.83*1.15</f>
-        <v>6298.3544999999995</v>
+        <f>4465.4*1.15</f>
+        <v>5135.2099999999991</v>
       </c>
       <c r="J19" s="36">
         <f>G19*I19</f>
-        <v>33885.147209999996</v>
+        <v>52659.48032917524</v>
       </c>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="28"/>
       <c r="C20" s="19"/>
@@ -3143,7 +3143,7 @@
       <c r="J20" s="30"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="37" t="s">
         <v>16</v>
@@ -3157,11 +3157,11 @@
       <c r="I21" s="36"/>
       <c r="J21" s="36">
         <f>SUM(J9:J20)</f>
-        <v>46326.255556332209</v>
+        <v>65100.588675507453</v>
       </c>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="46"/>
       <c r="B22" s="49"/>
       <c r="C22" s="50"/>
@@ -3174,16 +3174,16 @@
       <c r="J22" s="48"/>
       <c r="K22" s="45"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
       <c r="B23" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="76">
+      <c r="C23" s="74">
         <f>J21</f>
-        <v>46326.255556332209</v>
-      </c>
-      <c r="D23" s="76"/>
+        <v>65100.588675507453</v>
+      </c>
+      <c r="D23" s="74"/>
       <c r="E23" s="40"/>
       <c r="F23" s="41"/>
       <c r="G23" s="40"/>
@@ -3191,16 +3191,16 @@
       <c r="I23" s="43"/>
       <c r="J23" s="44"/>
     </row>
-    <row r="24" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
       <c r="B24" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="76">
+      <c r="C24" s="74">
         <f>0.13*C23</f>
-        <v>6022.4132223231873</v>
-      </c>
-      <c r="D24" s="76"/>
+        <v>8463.0765278159688</v>
+      </c>
+      <c r="D24" s="74"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
@@ -3208,85 +3208,85 @@
       <c r="I24" s="45"/>
       <c r="J24" s="45"/>
     </row>
-    <row r="25" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="76">
+      <c r="C25" s="74">
         <f>SUM(C23:D24)</f>
-        <v>52348.668778655396</v>
-      </c>
-      <c r="D25" s="76"/>
-    </row>
-    <row r="26" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>73563.665203323428</v>
+      </c>
+      <c r="D25" s="74"/>
+    </row>
+    <row r="26" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
@@ -3300,25 +3300,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
@@ -3333,7 +3333,7 @@
       <c r="J1" s="77"/>
       <c r="K1" s="77"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
@@ -3348,7 +3348,7 @@
       <c r="J2" s="78"/>
       <c r="K2" s="78"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
         <v>2</v>
       </c>
@@ -3363,7 +3363,7 @@
       <c r="J3" s="79"/>
       <c r="K3" s="79"/>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -3378,7 +3378,7 @@
       <c r="J4" s="79"/>
       <c r="K4" s="79"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="80" t="s">
         <v>53</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="J5" s="80"/>
       <c r="K5" s="80"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="81" t="s">
         <v>47</v>
       </c>
@@ -3409,15 +3409,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
       <c r="G7" s="3"/>
       <c r="I7" s="73"/>
       <c r="J7" s="73"/>
@@ -3425,7 +3425,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="M8" s="31"/>
     </row>
-    <row r="9" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="K9" s="21"/>
       <c r="M9" s="70"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="55"/>
       <c r="B10" s="59" t="s">
         <v>43</v>
@@ -3518,7 +3518,7 @@
       <c r="K10" s="56"/>
       <c r="M10" s="70"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="55"/>
       <c r="B11" s="59" t="s">
         <v>42</v>
@@ -3547,7 +3547,7 @@
       <c r="K11" s="56"/>
       <c r="M11" s="61"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="55"/>
       <c r="B12" s="59" t="s">
         <v>41</v>
@@ -3575,7 +3575,7 @@
       <c r="J12" s="58"/>
       <c r="K12" s="56"/>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="33" t="s">
         <v>31</v>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="33"/>
       <c r="C14" s="19"/>
@@ -3613,7 +3613,7 @@
       <c r="J14" s="36"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>2</v>
       </c>
@@ -3630,7 +3630,7 @@
       <c r="J15" s="30"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
       <c r="B16" s="59" t="s">
         <v>44</v>
@@ -3647,21 +3647,21 @@
         <v>1.8</v>
       </c>
       <c r="G16" s="60">
-        <f>F16</f>
-        <v>1.8</v>
+        <f>PRODUCT(C16:F16)</f>
+        <v>10.012191405059433</v>
       </c>
       <c r="H16" s="58"/>
       <c r="I16" s="58"/>
       <c r="J16" s="58"/>
       <c r="K16" s="56"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="55"/>
       <c r="B17" s="59" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D17" s="12">
         <v>0.874</v>
@@ -3671,15 +3671,15 @@
         <v>1.8</v>
       </c>
       <c r="G17" s="60">
-        <f t="shared" ref="G17:G18" si="2">F17</f>
-        <v>1.8</v>
+        <f t="shared" ref="G17:G18" si="2">PRODUCT(C17:F17)</f>
+        <v>-1.5731999999999999</v>
       </c>
       <c r="H17" s="58"/>
       <c r="I17" s="58"/>
       <c r="J17" s="58"/>
       <c r="K17" s="56"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55"/>
       <c r="B18" s="59" t="s">
         <v>46</v>
@@ -3696,14 +3696,14 @@
       </c>
       <c r="G18" s="60">
         <f t="shared" si="2"/>
-        <v>1.78</v>
+        <v>1.8156000000000001</v>
       </c>
       <c r="H18" s="58"/>
       <c r="I18" s="58"/>
       <c r="J18" s="58"/>
       <c r="K18" s="56"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="33" t="s">
         <v>31</v>
@@ -3714,7 +3714,7 @@
       <c r="F19" s="21"/>
       <c r="G19" s="23">
         <f>SUM(G16:G18)</f>
-        <v>5.38</v>
+        <v>10.254591405059433</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>33</v>
@@ -3724,11 +3724,11 @@
       </c>
       <c r="J19" s="36">
         <f>G19*I19</f>
-        <v>24023.851999999999</v>
+        <v>45790.85246015239</v>
       </c>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="28"/>
       <c r="C20" s="19"/>
@@ -3741,7 +3741,7 @@
       <c r="J20" s="30"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="37" t="s">
         <v>17</v>
@@ -3755,11 +3755,11 @@
       <c r="I21" s="36"/>
       <c r="J21" s="36">
         <f>SUM(J9:J20)</f>
-        <v>34842.207083767142</v>
+        <v>56609.207543919532</v>
       </c>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="46"/>
       <c r="B22" s="49"/>
       <c r="C22" s="50"/>
@@ -3772,7 +3772,7 @@
       <c r="J22" s="48"/>
       <c r="K22" s="45"/>
     </row>
-    <row r="23" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
       <c r="B23" s="45"/>
       <c r="C23" s="45"/>
@@ -3785,62 +3785,62 @@
       <c r="J23" s="45"/>
       <c r="K23" s="45"/>
     </row>
-    <row r="24" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A7:F7"/>

--- a/ofc/estimates/nagar aspatal emergency ward/estimate (1).xlsx
+++ b/ofc/estimates/nagar aspatal emergency ward/estimate (1).xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\nagar aspatal emergency ward\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\nagar aspatal emergency ward\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7452"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="estimate (2)" sheetId="25" r:id="rId1"/>
@@ -96,10 +96,10 @@
     <definedName name="Planst">'[1]update Rate'!#REF!</definedName>
     <definedName name="plywood4">'[1]update Rate'!$N$69</definedName>
     <definedName name="plywood6">'[1]update Rate'!$N$71</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'estimate (2)'!$A$1:$K$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">M!$A$1:$K$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Valuated!$A$1:$K$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">WCR!$A$1:$K$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'estimate (2)'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">M!$A$1:$K$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Valuated!$A$1:$K$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">WCR!$A$1:$K$17</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'estimate (2)'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">M!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Valuated!$1:$8</definedName>
@@ -119,7 +119,7 @@
     <definedName name="Ttile">'[1]update Rate'!$N$43</definedName>
     <definedName name="unskilled">'[2]Material rate'!$D$154</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="48">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -241,34 +241,7 @@
     <t>sqm</t>
   </si>
   <si>
-    <t>Length (m)</t>
-  </si>
-  <si>
-    <t>Unit wt. (kg/m)</t>
-  </si>
-  <si>
-    <t>Total wt. (kg)</t>
-  </si>
-  <si>
-    <t>ljleGg ;fO{hsf] kmnfd] PËn km]lj|s]zg u/L k|fOd/ k]G6 ;lxt ug]{</t>
-  </si>
-  <si>
-    <t>Kg</t>
-  </si>
-  <si>
-    <t>Total wt. (Kg)</t>
-  </si>
-  <si>
     <t xml:space="preserve">F.Y:2081/2082           </t>
-  </si>
-  <si>
-    <t>MS flats 20mm*2mm</t>
-  </si>
-  <si>
-    <t>-1"*1"*2mm Equal angles at steps</t>
-  </si>
-  <si>
-    <t>-MS square rod 10mm *10mm size</t>
   </si>
   <si>
     <t>-for partition at emergency ward</t>
@@ -313,12 +286,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,12 +404,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Preeti"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -498,10 +465,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -509,7 +476,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,14 +496,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -545,7 +512,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,7 +533,7 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -592,7 +559,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -605,7 +572,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -618,26 +585,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -646,10 +604,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -670,14 +625,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,25 +652,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -716,27 +686,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1587,119 +1536,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="75" t="s">
         <v>28</v>
       </c>
@@ -1710,13 +1659,13 @@
       <c r="F7" s="75"/>
       <c r="G7" s="3"/>
       <c r="H7" s="76" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I7" s="76"/>
       <c r="J7" s="76"/>
       <c r="K7" s="76"/>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1752,121 +1701,106 @@
       </c>
       <c r="M8" s="31"/>
     </row>
-    <row r="9" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>39</v>
-      </c>
+      <c r="B9" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="22"/>
       <c r="I9" s="23"/>
-      <c r="J9" s="36"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="21"/>
-      <c r="M9" s="70"/>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
-      <c r="B10" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="57">
+    </row>
+    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
+      <c r="B10" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="54">
         <v>1</v>
       </c>
       <c r="D10" s="12">
-        <f>(8+8+10)/3.281</f>
-        <v>7.9244132886315146</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.70599999999999996</v>
-      </c>
+        <f>(8.25+10.25)/3.281</f>
+        <v>5.6385248399878085</v>
+      </c>
+      <c r="E10" s="12"/>
       <c r="F10" s="12">
-        <f t="shared" ref="F10:F11" si="0">PRODUCT(C10:E10)</f>
-        <v>5.5946357817738486</v>
-      </c>
-      <c r="G10" s="60">
-        <f t="shared" ref="G10:G11" si="1">F10</f>
-        <v>5.5946357817738486</v>
-      </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="56"/>
-      <c r="M10" s="70"/>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
-      <c r="B11" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="57">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="G10" s="57">
+        <f>PRODUCT(C10:F10)</f>
+        <v>10.352331606217616</v>
+      </c>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="53"/>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="54">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.876</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="G11" s="57">
+        <f t="shared" ref="G11:G12" si="0">PRODUCT(C11:F11)</f>
+        <v>-1.5768</v>
+      </c>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="53"/>
+      <c r="O11" s="1">
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="54">
         <v>1</v>
       </c>
-      <c r="D11" s="12">
-        <f>((8+8+(10/12)*8+(8/12)*3+(10.5/12)*3)/3.281)+((8+8)/3.281+0.25*8+0.265*6)+((10+10+(10/12)*11)/3.281+0.26*4+0.18*4)</f>
-        <v>27.434222289952245</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="D12" s="12">
+        <f>3.42/3.281</f>
+        <v>1.04236513258153</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="G12" s="57">
         <f t="shared" si="0"/>
-        <v>30.726328964746518</v>
-      </c>
-      <c r="G11" s="60">
-        <f t="shared" si="1"/>
-        <v>30.726328964746518</v>
-      </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="56"/>
-      <c r="M11" s="61"/>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="57">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12">
-        <f>(4*8+4*10+4*8)/3.281</f>
-        <v>31.697653154526058</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="F12" s="12">
-        <f>PRODUCT(C12:E12)</f>
-        <v>23.39286802804023</v>
-      </c>
-      <c r="G12" s="60">
-        <f>F12</f>
-        <v>23.39286802804023</v>
-      </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="56"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.913782383419689</v>
+      </c>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="53"/>
+      <c r="N12" s="1">
+        <f>6.083/3.281</f>
+        <v>1.8540079244132885</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="33" t="s">
         <v>31</v>
@@ -1877,22 +1811,23 @@
       <c r="F13" s="21"/>
       <c r="G13" s="23">
         <f>SUM(G10:G12)</f>
-        <v>59.713832774560601</v>
+        <v>10.689313989637304</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I13" s="23">
-        <f>181.17*1.15</f>
-        <v>208.34549999999996</v>
+        <f>4465.4*1.15</f>
+        <v>5135.2099999999991</v>
       </c>
       <c r="J13" s="36">
         <f>G13*I13</f>
-        <v>12441.108346332214</v>
+        <v>54891.872092725367</v>
       </c>
       <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="61"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="33"/>
       <c r="C14" s="19"/>
@@ -1905,267 +1840,143 @@
       <c r="J14" s="36"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
-        <v>2</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="57">
-        <v>1</v>
-      </c>
-      <c r="D16" s="12">
-        <f>(8+10.25)/3.281</f>
-        <v>5.5623285583663513</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="G16" s="60">
-        <f>PRODUCT(C16:F16)</f>
-        <v>10.012191405059433</v>
-      </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="56"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
-      <c r="B17" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="57">
-        <v>-1</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0.874</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="G17" s="60">
-        <f t="shared" ref="G17:G18" si="2">PRODUCT(C17:F17)</f>
-        <v>-1.5731999999999999</v>
-      </c>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="56"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="59" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36">
+        <f>SUM(J9:J13)</f>
+        <v>54891.872092725367</v>
+      </c>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="45"/>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="74">
+        <f>J15</f>
+        <v>54891.872092725367</v>
+      </c>
+      <c r="D17" s="74"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
+    </row>
+    <row r="18" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="57">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12">
-        <v>1.02</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="G18" s="60">
-        <f t="shared" si="2"/>
-        <v>1.8360000000000001</v>
-      </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="56"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="23">
-        <f>SUM(G16:G18)</f>
-        <v>10.274991405059433</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="23">
-        <f>4465.4*1.15</f>
-        <v>5135.2099999999991</v>
-      </c>
-      <c r="J19" s="36">
-        <f>G19*I19</f>
-        <v>52764.238613175243</v>
-      </c>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36">
-        <f>SUM(J9:J19)</f>
-        <v>65205.346959507457</v>
-      </c>
-      <c r="K21" s="32"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="45"/>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="74">
-        <f>J21</f>
-        <v>65205.346959507457</v>
-      </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
-    </row>
-    <row r="24" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45"/>
-      <c r="B24" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="74">
-        <f>0.13*C23</f>
-        <v>8476.6951047359689</v>
-      </c>
-      <c r="D24" s="74"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-    </row>
-    <row r="25" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
+      <c r="C18" s="74">
+        <f>0.13*C17</f>
+        <v>7135.9433720542984</v>
+      </c>
+      <c r="D18" s="74"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+    </row>
+    <row r="19" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="74">
-        <f>SUM(C23:D24)</f>
-        <v>73682.042064243433</v>
-      </c>
-      <c r="D25" s="74"/>
-    </row>
-    <row r="26" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="C19" s="74">
+        <f>SUM(C17:D18)</f>
+        <v>62027.815464779662</v>
+      </c>
+      <c r="D19" s="74"/>
+    </row>
+    <row r="20" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -2173,11 +1984,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
@@ -2189,118 +1995,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5546875" customWidth="1"/>
-    <col min="16" max="16" width="9.5546875" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="58" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-    </row>
-    <row r="2" spans="1:16" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="86" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+    </row>
+    <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="N3" s="64"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="N3" s="60"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="N4" s="64"/>
-    </row>
-    <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="87" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="N4" s="60"/>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-    </row>
-    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+    </row>
+    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="83">
-        <f>F17</f>
-        <v>65205.346959507457</v>
-      </c>
-      <c r="D6" s="84"/>
+      <c r="C6" s="84">
+        <f>F15</f>
+        <v>54891.872092725367</v>
+      </c>
+      <c r="D6" s="85"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -2308,90 +2114,90 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="83">
-        <f>I17</f>
-        <v>65100.588675507453</v>
-      </c>
-      <c r="K6" s="84"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J6" s="84">
+        <f>I15</f>
+        <v>54891.872092725367</v>
+      </c>
+      <c r="K6" s="85"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="I7" s="91" t="s">
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="I7" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="81" t="str">
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="68" t="str">
         <f>Valuated!A6</f>
         <v>Project:- नगर अस्पताल मर्मत</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="I8" s="92" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="93" t="str">
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="I8" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="82" t="str">
         <f>Valuated!A7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="I9" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="88" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="I9" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="94" t="s">
+      <c r="D11" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94" t="s">
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="88" t="s">
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="89" t="s">
+      <c r="K11" s="78" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -2410,56 +2216,55 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89"/>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="J12" s="77"/>
+      <c r="K12" s="78"/>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
-        <f>'estimate (2)'!A9</f>
         <v>1</v>
       </c>
-      <c r="B13" s="71" t="str">
+      <c r="B13" s="29" t="str">
         <f>'estimate (2)'!B9</f>
-        <v>ljleGg ;fO{hsf] kmnfd] PËn km]lj|s]zg u/L k|fOd/ k]G6 ;lxt ug]{</v>
+        <v>Providing and fixing low Height Partation of Aluminium Section in naturally anodized of black anodized color Section size (64*38*1.1 mm) fitted with 5 mm clear glass or 9 mm both side laminated board. (average panel area 6.00 Sq.ft).</v>
       </c>
       <c r="C13" s="12" t="str">
         <f>'estimate (2)'!H13</f>
-        <v>Kg</v>
+        <v>sqm</v>
       </c>
       <c r="D13" s="12">
         <f>'estimate (2)'!G13</f>
-        <v>59.713832774560601</v>
+        <v>10.689313989637304</v>
       </c>
       <c r="E13" s="12">
         <f>'estimate (2)'!I13</f>
-        <v>208.34549999999996</v>
+        <v>5135.2099999999991</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" ref="F13" si="0">D13*E13</f>
-        <v>12441.108346332214</v>
+        <f>D13*E13</f>
+        <v>54891.872092725367</v>
       </c>
       <c r="G13" s="12">
         <f>Valuated!G13</f>
-        <v>59.713832774560601</v>
+        <v>10.689313989637304</v>
       </c>
       <c r="H13" s="12">
         <f>Valuated!I13</f>
-        <v>208.34549999999996</v>
+        <v>5135.2099999999991</v>
       </c>
       <c r="I13" s="12">
-        <f t="shared" ref="I13" si="1">G13*H13</f>
-        <v>12441.108346332214</v>
+        <f>G13*H13</f>
+        <v>54891.872092725367</v>
       </c>
       <c r="J13" s="26">
-        <f t="shared" ref="J13" si="2">I13-F13</f>
+        <f>I13-F13</f>
         <v>0</v>
       </c>
       <c r="K13" s="14"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-    </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="60"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="12"/>
@@ -2471,196 +2276,141 @@
       <c r="I14" s="12"/>
       <c r="J14" s="26"/>
       <c r="K14" s="14"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-    </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
-        <f>'estimate (2)'!A15</f>
-        <v>2</v>
-      </c>
-      <c r="B15" s="29" t="str">
-        <f>'estimate (2)'!B15</f>
-        <v>Providing and fixing low Height Partation of Aluminium Section in naturally anodized of black anodized color Section size (64*38*1.1 mm) fitted with 5 mm clear glass or 9 mm both side laminated board. (average panel area 6.00 Sq.ft).</v>
-      </c>
-      <c r="C15" s="12" t="str">
-        <f>'estimate (2)'!H19</f>
-        <v>sqm</v>
-      </c>
-      <c r="D15" s="12">
-        <f>'estimate (2)'!G19</f>
-        <v>10.274991405059433</v>
-      </c>
-      <c r="E15" s="12">
-        <f>'estimate (2)'!I19</f>
-        <v>5135.2099999999991</v>
-      </c>
-      <c r="F15" s="12">
-        <f>D15*E15</f>
-        <v>52764.238613175243</v>
-      </c>
-      <c r="G15" s="12">
-        <f>Valuated!G19</f>
-        <v>10.254591405059433</v>
-      </c>
-      <c r="H15" s="12">
-        <f>Valuated!I19</f>
-        <v>5135.2099999999991</v>
-      </c>
-      <c r="I15" s="12">
-        <f>G15*H15</f>
-        <v>52659.48032917524</v>
-      </c>
-      <c r="J15" s="26">
+      <c r="N14" s="60"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
+        <f>SUM(F13:F13)</f>
+        <v>54891.872092725367</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7">
+        <f>SUM(I13:I13)</f>
+        <v>54891.872092725367</v>
+      </c>
+      <c r="J15" s="13">
         <f>I15-F15</f>
-        <v>-104.75828400000319</v>
-      </c>
-      <c r="K15" s="14"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-    </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="14"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="62"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="7">
+        <f>0.13*F15</f>
+        <v>7135.9433720542984</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7">
+        <f>0.13*I15</f>
+        <v>7135.9433720542984</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" ref="J16:J17" si="0">I16-F16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="62"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="7">
-        <f>SUM(F13:F15)</f>
-        <v>65205.346959507457</v>
+        <f>SUM(F15:F16)</f>
+        <v>62027.815464779662</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7">
-        <f>SUM(I13:I15)</f>
-        <v>65100.588675507453</v>
+        <f>SUM(I15:I16)</f>
+        <v>62027.815464779662</v>
       </c>
       <c r="J17" s="13">
-        <f>I17-F17</f>
-        <v>-104.75828400000319</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K17" s="5"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="66"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="7">
-        <f>0.13*F17</f>
-        <v>8476.6951047359689</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7">
-        <f>0.13*I17</f>
-        <v>8463.0765278159688</v>
-      </c>
-      <c r="J18" s="13">
-        <f t="shared" ref="J18:J19" si="3">I18-F18</f>
-        <v>-13.618576920000123</v>
-      </c>
-      <c r="K18" s="5"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="66"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="7">
-        <f>SUM(F17:F18)</f>
-        <v>73682.042064243433</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7">
-        <f>SUM(I17:I18)</f>
-        <v>73563.665203323428</v>
-      </c>
-      <c r="J19" s="13">
-        <f t="shared" si="3"/>
-        <v>-118.37686092000513</v>
-      </c>
-      <c r="K19" s="5"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="66"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O20" s="65"/>
-      <c r="P20" s="66"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O21" s="65"/>
-      <c r="P21" s="66"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O22" s="65"/>
-      <c r="P22" s="66"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O23" s="65"/>
-      <c r="P23" s="66"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N24" s="51"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="66"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O17" s="61"/>
+      <c r="P17" s="62"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O18" s="61"/>
+      <c r="P18" s="62"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O19" s="61"/>
+      <c r="P19" s="62"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O20" s="61"/>
+      <c r="P20" s="62"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O21" s="61"/>
+      <c r="P21" s="62"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N22" s="51"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="62"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N24" s="59"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N26" s="63"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N28" s="67"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N29" s="67"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N27" s="63"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -2674,13 +2424,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2696,119 +2439,119 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D10" sqref="D10:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="75" t="s">
         <v>28</v>
       </c>
@@ -2819,13 +2562,13 @@
       <c r="F7" s="75"/>
       <c r="G7" s="3"/>
       <c r="H7" s="76" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I7" s="76"/>
       <c r="J7" s="76"/>
       <c r="K7" s="76"/>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2861,121 +2604,98 @@
       </c>
       <c r="M8" s="31"/>
     </row>
-    <row r="9" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>39</v>
-      </c>
+      <c r="B9" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="22"/>
       <c r="I9" s="23"/>
-      <c r="J9" s="36"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="21"/>
-      <c r="M9" s="70"/>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
-      <c r="B10" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="57">
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
+      <c r="B10" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="54">
         <v>1</v>
       </c>
       <c r="D10" s="12">
-        <f>(8+8+10)/3.281</f>
-        <v>7.9244132886315146</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.70599999999999996</v>
-      </c>
+        <f>(8.25+10.25)/3.281</f>
+        <v>5.6385248399878085</v>
+      </c>
+      <c r="E10" s="12"/>
       <c r="F10" s="12">
-        <f>PRODUCT(C10:E10)</f>
-        <v>5.5946357817738486</v>
-      </c>
-      <c r="G10" s="60">
-        <f>F10</f>
-        <v>5.5946357817738486</v>
-      </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="56"/>
-      <c r="M10" s="70"/>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
-      <c r="B11" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="57">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="G10" s="57">
+        <f>PRODUCT(C10:F10)</f>
+        <v>10.352331606217616</v>
+      </c>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="53"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="54">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.876</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="G11" s="57">
+        <f t="shared" ref="G11:G12" si="0">PRODUCT(C11:F11)</f>
+        <v>-1.5768</v>
+      </c>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="53"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="54">
         <v>1</v>
       </c>
-      <c r="D11" s="12">
-        <f>((8+8+(10/12)*8+(8/12)*3+(10.5/12)*3)/3.281)+((8+8)/3.281+0.25*8+0.265*6)+((10+10+(10/12)*11)/3.281+0.26*4+0.18*4)</f>
-        <v>27.434222289952245</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" ref="F10:F11" si="0">PRODUCT(C11:E11)</f>
-        <v>30.726328964746518</v>
-      </c>
-      <c r="G11" s="60">
-        <f t="shared" ref="G10:G11" si="1">F11</f>
-        <v>30.726328964746518</v>
-      </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="56"/>
-      <c r="M11" s="61"/>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="57">
-        <v>1</v>
-      </c>
       <c r="D12" s="12">
-        <f>(4*8+4*10+4*8)/3.281</f>
-        <v>31.697653154526058</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0.73799999999999999</v>
-      </c>
+        <f>3.42/3.281</f>
+        <v>1.04236513258153</v>
+      </c>
+      <c r="E12" s="12"/>
       <c r="F12" s="12">
-        <f>PRODUCT(C12:E12)</f>
-        <v>23.39286802804023</v>
-      </c>
-      <c r="G12" s="60">
-        <f>F12</f>
-        <v>23.39286802804023</v>
-      </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="56"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="G12" s="57">
+        <f t="shared" si="0"/>
+        <v>1.913782383419689</v>
+      </c>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="53"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="33" t="s">
         <v>31</v>
@@ -2986,295 +2706,171 @@
       <c r="F13" s="21"/>
       <c r="G13" s="23">
         <f>SUM(G10:G12)</f>
-        <v>59.713832774560601</v>
+        <v>10.689313989637304</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I13" s="23">
-        <f>1.15*181.17</f>
-        <v>208.34549999999996</v>
+        <f>4465.4*1.15</f>
+        <v>5135.2099999999991</v>
       </c>
       <c r="J13" s="36">
         <f>G13*I13</f>
-        <v>12441.108346332214</v>
+        <v>54891.872092725367</v>
       </c>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
-      <c r="B14" s="33"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="23"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="22"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="36"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
-        <v>2</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="57">
-        <v>1</v>
-      </c>
-      <c r="D16" s="12">
-        <f>(8+10.25)/3.281</f>
-        <v>5.5623285583663513</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="G16" s="60">
-        <f>PRODUCT(C16:F16)</f>
-        <v>10.012191405059433</v>
-      </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="56"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
-      <c r="B17" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="57">
-        <v>-1</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0.874</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="G17" s="60">
-        <f t="shared" ref="G17:G18" si="2">PRODUCT(C17:F17)</f>
-        <v>-1.5731999999999999</v>
-      </c>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="56"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="59" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36">
+        <f>SUM(J9:J14)</f>
+        <v>54891.872092725367</v>
+      </c>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="45"/>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="74">
+        <f>J15</f>
+        <v>54891.872092725367</v>
+      </c>
+      <c r="D17" s="74"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
+    </row>
+    <row r="18" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="57">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12">
-        <v>1.02</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12">
-        <v>1.78</v>
-      </c>
-      <c r="G18" s="60">
-        <f t="shared" si="2"/>
-        <v>1.8156000000000001</v>
-      </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="56"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="23">
-        <f>SUM(G16:G18)</f>
-        <v>10.254591405059433</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="23">
-        <f>4465.4*1.15</f>
-        <v>5135.2099999999991</v>
-      </c>
-      <c r="J19" s="36">
-        <f>G19*I19</f>
-        <v>52659.48032917524</v>
-      </c>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36">
-        <f>SUM(J9:J20)</f>
-        <v>65100.588675507453</v>
-      </c>
-      <c r="K21" s="32"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="45"/>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="74">
-        <f>J21</f>
-        <v>65100.588675507453</v>
-      </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
-    </row>
-    <row r="24" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45"/>
-      <c r="B24" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="74">
-        <f>0.13*C23</f>
-        <v>8463.0765278159688</v>
-      </c>
-      <c r="D24" s="74"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-    </row>
-    <row r="25" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
+      <c r="C18" s="74">
+        <f>0.13*C17</f>
+        <v>7135.9433720542984</v>
+      </c>
+      <c r="D18" s="74"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+    </row>
+    <row r="19" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="74">
-        <f>SUM(C23:D24)</f>
-        <v>73563.665203323428</v>
-      </c>
-      <c r="D25" s="74"/>
-    </row>
-    <row r="26" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="C19" s="74">
+        <f>SUM(C17:D18)</f>
+        <v>62027.815464779662</v>
+      </c>
+      <c r="D19" s="74"/>
+    </row>
+    <row r="20" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -3282,11 +2878,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
@@ -3298,118 +2889,118 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="2"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="69" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="65" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="75" t="s">
         <v>28</v>
       </c>
@@ -3419,13 +3010,13 @@
       <c r="E7" s="75"/>
       <c r="F7" s="75"/>
       <c r="G7" s="3"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="68" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -3461,121 +3052,98 @@
       </c>
       <c r="M8" s="31"/>
     </row>
-    <row r="9" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>39</v>
-      </c>
+      <c r="B9" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="22"/>
       <c r="I9" s="23"/>
-      <c r="J9" s="36"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="21"/>
-      <c r="M9" s="70"/>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
-      <c r="B10" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="57">
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
+      <c r="B10" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="54">
         <v>1</v>
       </c>
       <c r="D10" s="12">
-        <f>(8+8+10)/3.281</f>
-        <v>7.9244132886315146</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.70599999999999996</v>
-      </c>
+        <f>(8.25+10.25)/3.281</f>
+        <v>5.6385248399878085</v>
+      </c>
+      <c r="E10" s="12"/>
       <c r="F10" s="12">
-        <f t="shared" ref="F10:F11" si="0">PRODUCT(C10:E10)</f>
-        <v>5.5946357817738486</v>
-      </c>
-      <c r="G10" s="60">
-        <f t="shared" ref="G10:G11" si="1">F10</f>
-        <v>5.5946357817738486</v>
-      </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="56"/>
-      <c r="M10" s="70"/>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
-      <c r="B11" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="57">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="G10" s="57">
+        <f>PRODUCT(C10:F10)</f>
+        <v>10.352331606217616</v>
+      </c>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="53"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="54">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.876</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="G11" s="57">
+        <f t="shared" ref="G11:G12" si="0">PRODUCT(C11:F11)</f>
+        <v>-1.5768</v>
+      </c>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="53"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="54">
         <v>1</v>
       </c>
-      <c r="D11" s="12">
-        <f>((8+8+(10/12)*8+(8/12)*3+(10.5/12)*3)/3.281)+((8+8)/3.281+0.25*8+0.265*6)+((10+10+(10/12)*11)/3.281+0.26*4+0.18*4)</f>
-        <v>27.434222289952245</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="D12" s="12">
+        <f>3.42/3.281</f>
+        <v>1.04236513258153</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="G12" s="57">
         <f t="shared" si="0"/>
-        <v>30.726328964746518</v>
-      </c>
-      <c r="G11" s="60">
-        <f t="shared" si="1"/>
-        <v>30.726328964746518</v>
-      </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="56"/>
-      <c r="M11" s="61"/>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="57">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12">
-        <f>(4*8+4*10+4*8)/3.281</f>
-        <v>31.697653154526058</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="F12" s="12">
-        <f>PRODUCT(C12:E12)</f>
-        <v>23.39286802804023</v>
-      </c>
-      <c r="G12" s="60">
-        <f>F12</f>
-        <v>23.39286802804023</v>
-      </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="56"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.913782383419689</v>
+      </c>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="53"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="33" t="s">
         <v>31</v>
@@ -3586,261 +3154,133 @@
       <c r="F13" s="21"/>
       <c r="G13" s="23">
         <f>SUM(G10:G12)</f>
-        <v>59.713832774560601</v>
+        <v>10.689313989637304</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I13" s="23">
-        <v>181.17</v>
+        <v>4465.3999999999996</v>
       </c>
       <c r="J13" s="36">
         <f>G13*I13</f>
-        <v>10818.355083767143</v>
+        <v>47732.062689326413</v>
       </c>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
-      <c r="B14" s="33"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="23"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="22"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="36"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:13" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
-        <v>2</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="57">
-        <v>1</v>
-      </c>
-      <c r="D16" s="12">
-        <f>(8+10.25)/3.281</f>
-        <v>5.5623285583663513</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="G16" s="60">
-        <f>PRODUCT(C16:F16)</f>
-        <v>10.012191405059433</v>
-      </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="56"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
-      <c r="B17" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="57">
-        <v>-1</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0.874</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="G17" s="60">
-        <f t="shared" ref="G17:G18" si="2">PRODUCT(C17:F17)</f>
-        <v>-1.5731999999999999</v>
-      </c>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="56"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="57">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12">
-        <v>1.02</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12">
-        <v>1.78</v>
-      </c>
-      <c r="G18" s="60">
-        <f t="shared" si="2"/>
-        <v>1.8156000000000001</v>
-      </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="56"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="23">
-        <f>SUM(G16:G18)</f>
-        <v>10.254591405059433</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="23">
-        <v>4465.3999999999996</v>
-      </c>
-      <c r="J19" s="36">
-        <f>G19*I19</f>
-        <v>45790.85246015239</v>
-      </c>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="37" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36">
-        <f>SUM(J9:J20)</f>
-        <v>56609.207543919532</v>
-      </c>
-      <c r="K21" s="32"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="45"/>
-    </row>
-    <row r="23" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-    </row>
-    <row r="24" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36">
+        <f>SUM(J9:J14)</f>
+        <v>47732.062689326413</v>
+      </c>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="45"/>
+    </row>
+    <row r="17" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+    </row>
+    <row r="18" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A7:F7"/>
